--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Amh-Acvr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Amh-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.850481418422586</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H2">
-        <v>0.850481418422586</v>
+        <v>0.098204</v>
       </c>
       <c r="I2">
-        <v>0.6607220657964363</v>
+        <v>0.01759711347418096</v>
       </c>
       <c r="J2">
-        <v>0.6607220657964363</v>
+        <v>0.01759711347418096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.12580728471186</v>
+        <v>5.379592</v>
       </c>
       <c r="N2">
-        <v>4.12580728471186</v>
+        <v>16.138776</v>
       </c>
       <c r="O2">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116526</v>
       </c>
       <c r="P2">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116527</v>
       </c>
       <c r="Q2">
-        <v>3.508922431639981</v>
+        <v>0.1760991509226667</v>
       </c>
       <c r="R2">
-        <v>3.508922431639981</v>
+        <v>1.584892358304</v>
       </c>
       <c r="S2">
-        <v>0.07375229268311734</v>
+        <v>0.002370980907560633</v>
       </c>
       <c r="T2">
-        <v>0.07375229268311734</v>
+        <v>0.002370980907560634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.850481418422586</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H3">
-        <v>0.850481418422586</v>
+        <v>0.098204</v>
       </c>
       <c r="I3">
-        <v>0.6607220657964363</v>
+        <v>0.01759711347418096</v>
       </c>
       <c r="J3">
-        <v>0.6607220657964363</v>
+        <v>0.01759711347418096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.9403220212655</v>
+        <v>13.148327</v>
       </c>
       <c r="N3">
-        <v>12.9403220212655</v>
+        <v>39.444981</v>
       </c>
       <c r="O3">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="P3">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="Q3">
-        <v>11.00550342749091</v>
+        <v>0.4304061015693333</v>
       </c>
       <c r="R3">
-        <v>11.00550342749091</v>
+        <v>3.873654914124</v>
       </c>
       <c r="S3">
-        <v>0.2313191943459409</v>
+        <v>0.005794943609731738</v>
       </c>
       <c r="T3">
-        <v>0.2313191943459409</v>
+        <v>0.005794943609731739</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.850481418422586</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H4">
-        <v>0.850481418422586</v>
+        <v>0.098204</v>
       </c>
       <c r="I4">
-        <v>0.6607220657964363</v>
+        <v>0.01759711347418096</v>
       </c>
       <c r="J4">
-        <v>0.6607220657964363</v>
+        <v>0.01759711347418096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.98374011477995</v>
+        <v>5.33802</v>
       </c>
       <c r="N4">
-        <v>4.98374011477995</v>
+        <v>16.01406</v>
       </c>
       <c r="O4">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="P4">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="Q4">
-        <v>4.238578361867593</v>
+        <v>0.17473830536</v>
       </c>
       <c r="R4">
-        <v>4.238578361867593</v>
+        <v>1.57264474824</v>
       </c>
       <c r="S4">
-        <v>0.089088567215401</v>
+        <v>0.002352658622471149</v>
       </c>
       <c r="T4">
-        <v>0.089088567215401</v>
+        <v>0.002352658622471149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.850481418422586</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H5">
-        <v>0.850481418422586</v>
+        <v>0.098204</v>
       </c>
       <c r="I5">
-        <v>0.6607220657964363</v>
+        <v>0.01759711347418096</v>
       </c>
       <c r="J5">
-        <v>0.6607220657964363</v>
+        <v>0.01759711347418096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.06772483287142</v>
+        <v>5.091788666666666</v>
       </c>
       <c r="N5">
-        <v>5.06772483287142</v>
+        <v>15.275366</v>
       </c>
       <c r="O5">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676195</v>
       </c>
       <c r="P5">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676196</v>
       </c>
       <c r="Q5">
-        <v>4.310005804035848</v>
+        <v>0.1666780047404444</v>
       </c>
       <c r="R5">
-        <v>4.310005804035848</v>
+        <v>1.500102042664</v>
       </c>
       <c r="S5">
-        <v>0.09058986504202107</v>
+        <v>0.002244135561581673</v>
       </c>
       <c r="T5">
-        <v>0.09058986504202107</v>
+        <v>0.002244135561581674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.850481418422586</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H6">
-        <v>0.850481418422586</v>
+        <v>0.098204</v>
       </c>
       <c r="I6">
-        <v>0.6607220657964363</v>
+        <v>0.01759711347418096</v>
       </c>
       <c r="J6">
-        <v>0.6607220657964363</v>
+        <v>0.01759711347418096</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.684767107799819</v>
+        <v>0.855806</v>
       </c>
       <c r="N6">
-        <v>0.684767107799819</v>
+        <v>2.567418</v>
       </c>
       <c r="O6">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744256</v>
       </c>
       <c r="P6">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744257</v>
       </c>
       <c r="Q6">
-        <v>0.5823817011307219</v>
+        <v>0.02801452414133333</v>
       </c>
       <c r="R6">
-        <v>0.5823817011307219</v>
+        <v>0.252130717272</v>
       </c>
       <c r="S6">
-        <v>0.01224079087294332</v>
+        <v>0.0003771846799117545</v>
       </c>
       <c r="T6">
-        <v>0.01224079087294332</v>
+        <v>0.0003771846799117546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.850481418422586</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H7">
-        <v>0.850481418422586</v>
+        <v>0.098204</v>
       </c>
       <c r="I7">
-        <v>0.6607220657964363</v>
+        <v>0.01759711347418096</v>
       </c>
       <c r="J7">
-        <v>0.6607220657964363</v>
+        <v>0.01759711347418096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.159362987200661</v>
+        <v>10.113102</v>
       </c>
       <c r="N7">
-        <v>9.159362987200661</v>
+        <v>30.339306</v>
       </c>
       <c r="O7">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792178</v>
       </c>
       <c r="P7">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792179</v>
       </c>
       <c r="Q7">
-        <v>7.789868025201752</v>
+        <v>0.331049022936</v>
       </c>
       <c r="R7">
-        <v>7.789868025201752</v>
+        <v>2.979441206424</v>
       </c>
       <c r="S7">
-        <v>0.1637313556370126</v>
+        <v>0.004457210092924009</v>
       </c>
       <c r="T7">
-        <v>0.1637313556370126</v>
+        <v>0.004457210092924011</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.436718544238587</v>
+        <v>0.192068</v>
       </c>
       <c r="H8">
-        <v>0.436718544238587</v>
+        <v>0.576204</v>
       </c>
       <c r="I8">
-        <v>0.3392779342035637</v>
+        <v>0.1032496351704306</v>
       </c>
       <c r="J8">
-        <v>0.3392779342035637</v>
+        <v>0.1032496351704306</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.12580728471186</v>
+        <v>5.379592</v>
       </c>
       <c r="N8">
-        <v>4.12580728471186</v>
+        <v>16.138776</v>
       </c>
       <c r="O8">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116526</v>
       </c>
       <c r="P8">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116527</v>
       </c>
       <c r="Q8">
-        <v>1.801816551188321</v>
+        <v>1.033247476256</v>
       </c>
       <c r="R8">
-        <v>1.801816551188321</v>
+        <v>9.299227286304001</v>
       </c>
       <c r="S8">
-        <v>0.03787148454644455</v>
+        <v>0.01391153805201486</v>
       </c>
       <c r="T8">
-        <v>0.03787148454644455</v>
+        <v>0.01391153805201487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.436718544238587</v>
+        <v>0.192068</v>
       </c>
       <c r="H9">
-        <v>0.436718544238587</v>
+        <v>0.576204</v>
       </c>
       <c r="I9">
-        <v>0.3392779342035637</v>
+        <v>0.1032496351704306</v>
       </c>
       <c r="J9">
-        <v>0.3392779342035637</v>
+        <v>0.1032496351704306</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.9403220212655</v>
+        <v>13.148327</v>
       </c>
       <c r="N9">
-        <v>12.9403220212655</v>
+        <v>39.444981</v>
       </c>
       <c r="O9">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="P9">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="Q9">
-        <v>5.651278595105599</v>
+        <v>2.525372870236</v>
       </c>
       <c r="R9">
-        <v>5.651278595105599</v>
+        <v>22.728355832124</v>
       </c>
       <c r="S9">
-        <v>0.1187814097062456</v>
+        <v>0.03400136132644156</v>
       </c>
       <c r="T9">
-        <v>0.1187814097062456</v>
+        <v>0.03400136132644156</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.436718544238587</v>
+        <v>0.192068</v>
       </c>
       <c r="H10">
-        <v>0.436718544238587</v>
+        <v>0.576204</v>
       </c>
       <c r="I10">
-        <v>0.3392779342035637</v>
+        <v>0.1032496351704306</v>
       </c>
       <c r="J10">
-        <v>0.3392779342035637</v>
+        <v>0.1032496351704306</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.98374011477995</v>
+        <v>5.33802</v>
       </c>
       <c r="N10">
-        <v>4.98374011477995</v>
+        <v>16.01406</v>
       </c>
       <c r="O10">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="P10">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="Q10">
-        <v>2.176491727790149</v>
+        <v>1.02526282536</v>
       </c>
       <c r="R10">
-        <v>2.176491727790149</v>
+        <v>9.227365428240001</v>
       </c>
       <c r="S10">
-        <v>0.0457465954456392</v>
+        <v>0.01380403353124482</v>
       </c>
       <c r="T10">
-        <v>0.0457465954456392</v>
+        <v>0.01380403353124482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1098,49 +1098,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.436718544238587</v>
+        <v>0.192068</v>
       </c>
       <c r="H11">
-        <v>0.436718544238587</v>
+        <v>0.576204</v>
       </c>
       <c r="I11">
-        <v>0.3392779342035637</v>
+        <v>0.1032496351704306</v>
       </c>
       <c r="J11">
-        <v>0.3392779342035637</v>
+        <v>0.1032496351704306</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.06772483287142</v>
+        <v>5.091788666666666</v>
       </c>
       <c r="N11">
-        <v>5.06772483287142</v>
+        <v>15.275366</v>
       </c>
       <c r="O11">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676195</v>
       </c>
       <c r="P11">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676196</v>
       </c>
       <c r="Q11">
-        <v>2.213169411613343</v>
+        <v>0.9779696656293333</v>
       </c>
       <c r="R11">
-        <v>2.213169411613343</v>
+        <v>8.801726990663999</v>
       </c>
       <c r="S11">
-        <v>0.04651750541158075</v>
+        <v>0.01316728327894594</v>
       </c>
       <c r="T11">
-        <v>0.04651750541158075</v>
+        <v>0.01316728327894594</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.436718544238587</v>
+        <v>0.192068</v>
       </c>
       <c r="H12">
-        <v>0.436718544238587</v>
+        <v>0.576204</v>
       </c>
       <c r="I12">
-        <v>0.3392779342035637</v>
+        <v>0.1032496351704306</v>
       </c>
       <c r="J12">
-        <v>0.3392779342035637</v>
+        <v>0.1032496351704306</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.684767107799819</v>
+        <v>0.855806</v>
       </c>
       <c r="N12">
-        <v>0.684767107799819</v>
+        <v>2.567418</v>
       </c>
       <c r="O12">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744256</v>
       </c>
       <c r="P12">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744257</v>
       </c>
       <c r="Q12">
-        <v>0.2990504944608045</v>
+        <v>0.164372946808</v>
       </c>
       <c r="R12">
-        <v>0.2990504944608045</v>
+        <v>1.479356521272</v>
       </c>
       <c r="S12">
-        <v>0.006285593376367674</v>
+        <v>0.002213100497982492</v>
       </c>
       <c r="T12">
-        <v>0.006285593376367674</v>
+        <v>0.002213100497982492</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.192068</v>
+      </c>
+      <c r="H13">
+        <v>0.576204</v>
+      </c>
+      <c r="I13">
+        <v>0.1032496351704306</v>
+      </c>
+      <c r="J13">
+        <v>0.1032496351704306</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.113102</v>
+      </c>
+      <c r="N13">
+        <v>30.339306</v>
+      </c>
+      <c r="O13">
+        <v>0.2532921151792178</v>
+      </c>
+      <c r="P13">
+        <v>0.2532921151792179</v>
+      </c>
+      <c r="Q13">
+        <v>1.942403274936</v>
+      </c>
+      <c r="R13">
+        <v>17.481629474424</v>
+      </c>
+      <c r="S13">
+        <v>0.02615231848380092</v>
+      </c>
+      <c r="T13">
+        <v>0.02615231848380094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2078886666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.6236660000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.11175432133099</v>
+      </c>
+      <c r="J14">
+        <v>0.11175432133099</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.379592</v>
+      </c>
+      <c r="N14">
+        <v>16.138776</v>
+      </c>
+      <c r="O14">
+        <v>0.1347369221116526</v>
+      </c>
+      <c r="P14">
+        <v>0.1347369221116527</v>
+      </c>
+      <c r="Q14">
+        <v>1.118356208090667</v>
+      </c>
+      <c r="R14">
+        <v>10.065205872816</v>
+      </c>
+      <c r="S14">
+        <v>0.0150574332888142</v>
+      </c>
+      <c r="T14">
+        <v>0.01505743328881421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2078886666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.6236660000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.11175432133099</v>
+      </c>
+      <c r="J15">
+        <v>0.11175432133099</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13.148327</v>
+      </c>
+      <c r="N15">
+        <v>39.444981</v>
+      </c>
+      <c r="O15">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="P15">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="Q15">
+        <v>2.733388168927334</v>
+      </c>
+      <c r="R15">
+        <v>24.600493520346</v>
+      </c>
+      <c r="S15">
+        <v>0.03680205797428775</v>
+      </c>
+      <c r="T15">
+        <v>0.03680205797428776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2078886666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.6236660000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.11175432133099</v>
+      </c>
+      <c r="J16">
+        <v>0.11175432133099</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.33802</v>
+      </c>
+      <c r="N16">
+        <v>16.01406</v>
+      </c>
+      <c r="O16">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="P16">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="Q16">
+        <v>1.10971386044</v>
+      </c>
+      <c r="R16">
+        <v>9.987424743960002</v>
+      </c>
+      <c r="S16">
+        <v>0.01494107360639171</v>
+      </c>
+      <c r="T16">
+        <v>0.01494107360639172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2078886666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.6236660000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.11175432133099</v>
+      </c>
+      <c r="J17">
+        <v>0.11175432133099</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.091788666666666</v>
+      </c>
+      <c r="N17">
+        <v>15.275366</v>
+      </c>
+      <c r="O17">
+        <v>0.1275286179676195</v>
+      </c>
+      <c r="P17">
+        <v>0.1275286179676196</v>
+      </c>
+      <c r="Q17">
+        <v>1.058525156861778</v>
+      </c>
+      <c r="R17">
+        <v>9.526726411756</v>
+      </c>
+      <c r="S17">
+        <v>0.01425187415125042</v>
+      </c>
+      <c r="T17">
+        <v>0.01425187415125042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2078886666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.6236660000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.11175432133099</v>
+      </c>
+      <c r="J18">
+        <v>0.11175432133099</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.855806</v>
+      </c>
+      <c r="N18">
+        <v>2.567418</v>
+      </c>
+      <c r="O18">
+        <v>0.02143446312744256</v>
+      </c>
+      <c r="P18">
+        <v>0.02143446312744257</v>
+      </c>
+      <c r="Q18">
+        <v>0.1779123682653334</v>
+      </c>
+      <c r="R18">
+        <v>1.601211314388</v>
+      </c>
+      <c r="S18">
+        <v>0.002395393879901474</v>
+      </c>
+      <c r="T18">
+        <v>0.002395393879901474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2078886666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.6236660000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.11175432133099</v>
+      </c>
+      <c r="J19">
+        <v>0.11175432133099</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.113102</v>
+      </c>
+      <c r="N19">
+        <v>30.339306</v>
+      </c>
+      <c r="O19">
+        <v>0.2532921151792178</v>
+      </c>
+      <c r="P19">
+        <v>0.2532921151792179</v>
+      </c>
+      <c r="Q19">
+        <v>2.102399290644</v>
+      </c>
+      <c r="R19">
+        <v>18.921593615796</v>
+      </c>
+      <c r="S19">
+        <v>0.02830648843034444</v>
+      </c>
+      <c r="T19">
+        <v>0.02830648843034445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9334356666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.800307</v>
+      </c>
+      <c r="I20">
+        <v>0.5017852637524262</v>
+      </c>
+      <c r="J20">
+        <v>0.5017852637524263</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.379592</v>
+      </c>
+      <c r="N20">
+        <v>16.138776</v>
+      </c>
+      <c r="O20">
+        <v>0.1347369221116526</v>
+      </c>
+      <c r="P20">
+        <v>0.1347369221116527</v>
+      </c>
+      <c r="Q20">
+        <v>5.021503044914667</v>
+      </c>
+      <c r="R20">
+        <v>45.193527404232</v>
+      </c>
+      <c r="S20">
+        <v>0.06760900199898572</v>
+      </c>
+      <c r="T20">
+        <v>0.06760900199898576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.436718544238587</v>
-      </c>
-      <c r="H13">
-        <v>0.436718544238587</v>
-      </c>
-      <c r="I13">
-        <v>0.3392779342035637</v>
-      </c>
-      <c r="J13">
-        <v>0.3392779342035637</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.159362987200661</v>
-      </c>
-      <c r="N13">
-        <v>9.159362987200661</v>
-      </c>
-      <c r="O13">
-        <v>0.2478067013542985</v>
-      </c>
-      <c r="P13">
-        <v>0.2478067013542985</v>
-      </c>
-      <c r="Q13">
-        <v>4.000063669923068</v>
-      </c>
-      <c r="R13">
-        <v>4.000063669923068</v>
-      </c>
-      <c r="S13">
-        <v>0.08407534571728582</v>
-      </c>
-      <c r="T13">
-        <v>0.08407534571728582</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9334356666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.800307</v>
+      </c>
+      <c r="I21">
+        <v>0.5017852637524262</v>
+      </c>
+      <c r="J21">
+        <v>0.5017852637524263</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.148327</v>
+      </c>
+      <c r="N21">
+        <v>39.444981</v>
+      </c>
+      <c r="O21">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="P21">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="Q21">
+        <v>12.27311737879633</v>
+      </c>
+      <c r="R21">
+        <v>110.458056409167</v>
+      </c>
+      <c r="S21">
+        <v>0.1652439936757877</v>
+      </c>
+      <c r="T21">
+        <v>0.1652439936757877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9334356666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.800307</v>
+      </c>
+      <c r="I22">
+        <v>0.5017852637524262</v>
+      </c>
+      <c r="J22">
+        <v>0.5017852637524263</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.33802</v>
+      </c>
+      <c r="N22">
+        <v>16.01406</v>
+      </c>
+      <c r="O22">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="P22">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="Q22">
+        <v>4.98269825738</v>
+      </c>
+      <c r="R22">
+        <v>44.84428431642</v>
+      </c>
+      <c r="S22">
+        <v>0.0670865383193792</v>
+      </c>
+      <c r="T22">
+        <v>0.06708653831937923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9334356666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.800307</v>
+      </c>
+      <c r="I23">
+        <v>0.5017852637524262</v>
+      </c>
+      <c r="J23">
+        <v>0.5017852637524263</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.091788666666666</v>
+      </c>
+      <c r="N23">
+        <v>15.275366</v>
+      </c>
+      <c r="O23">
+        <v>0.1275286179676195</v>
+      </c>
+      <c r="P23">
+        <v>0.1275286179676196</v>
+      </c>
+      <c r="Q23">
+        <v>4.752857148595777</v>
+      </c>
+      <c r="R23">
+        <v>42.775714337362</v>
+      </c>
+      <c r="S23">
+        <v>0.06399198120286435</v>
+      </c>
+      <c r="T23">
+        <v>0.0639919812028644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9334356666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.800307</v>
+      </c>
+      <c r="I24">
+        <v>0.5017852637524262</v>
+      </c>
+      <c r="J24">
+        <v>0.5017852637524263</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.855806</v>
+      </c>
+      <c r="N24">
+        <v>2.567418</v>
+      </c>
+      <c r="O24">
+        <v>0.02143446312744256</v>
+      </c>
+      <c r="P24">
+        <v>0.02143446312744257</v>
+      </c>
+      <c r="Q24">
+        <v>0.7988398441473333</v>
+      </c>
+      <c r="R24">
+        <v>7.189558597326</v>
+      </c>
+      <c r="S24">
+        <v>0.01075549773379542</v>
+      </c>
+      <c r="T24">
+        <v>0.01075549773379543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9334356666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.800307</v>
+      </c>
+      <c r="I25">
+        <v>0.5017852637524262</v>
+      </c>
+      <c r="J25">
+        <v>0.5017852637524263</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.113102</v>
+      </c>
+      <c r="N25">
+        <v>30.339306</v>
+      </c>
+      <c r="O25">
+        <v>0.2532921151792178</v>
+      </c>
+      <c r="P25">
+        <v>0.2532921151792179</v>
+      </c>
+      <c r="Q25">
+        <v>9.439930107438</v>
+      </c>
+      <c r="R25">
+        <v>84.959370966942</v>
+      </c>
+      <c r="S25">
+        <v>0.1270982508216137</v>
+      </c>
+      <c r="T25">
+        <v>0.1270982508216138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4941023333333334</v>
+      </c>
+      <c r="H26">
+        <v>1.482307</v>
+      </c>
+      <c r="I26">
+        <v>0.2656136662719722</v>
+      </c>
+      <c r="J26">
+        <v>0.2656136662719722</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.379592</v>
+      </c>
+      <c r="N26">
+        <v>16.138776</v>
+      </c>
+      <c r="O26">
+        <v>0.1347369221116526</v>
+      </c>
+      <c r="P26">
+        <v>0.1347369221116527</v>
+      </c>
+      <c r="Q26">
+        <v>2.658068959581333</v>
+      </c>
+      <c r="R26">
+        <v>23.922620636232</v>
+      </c>
+      <c r="S26">
+        <v>0.03578796786427722</v>
+      </c>
+      <c r="T26">
+        <v>0.03578796786427723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4941023333333334</v>
+      </c>
+      <c r="H27">
+        <v>1.482307</v>
+      </c>
+      <c r="I27">
+        <v>0.2656136662719722</v>
+      </c>
+      <c r="J27">
+        <v>0.2656136662719722</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.148327</v>
+      </c>
+      <c r="N27">
+        <v>39.444981</v>
+      </c>
+      <c r="O27">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="P27">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="Q27">
+        <v>6.496619050129667</v>
+      </c>
+      <c r="R27">
+        <v>58.469571451167</v>
+      </c>
+      <c r="S27">
+        <v>0.08746981260753761</v>
+      </c>
+      <c r="T27">
+        <v>0.08746981260753763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4941023333333334</v>
+      </c>
+      <c r="H28">
+        <v>1.482307</v>
+      </c>
+      <c r="I28">
+        <v>0.2656136662719722</v>
+      </c>
+      <c r="J28">
+        <v>0.2656136662719722</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.33802</v>
+      </c>
+      <c r="N28">
+        <v>16.01406</v>
+      </c>
+      <c r="O28">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="P28">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="Q28">
+        <v>2.63752813738</v>
+      </c>
+      <c r="R28">
+        <v>23.73775323642</v>
+      </c>
+      <c r="S28">
+        <v>0.03551140834079407</v>
+      </c>
+      <c r="T28">
+        <v>0.03551140834079408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4941023333333334</v>
+      </c>
+      <c r="H29">
+        <v>1.482307</v>
+      </c>
+      <c r="I29">
+        <v>0.2656136662719722</v>
+      </c>
+      <c r="J29">
+        <v>0.2656136662719722</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.091788666666666</v>
+      </c>
+      <c r="N29">
+        <v>15.275366</v>
+      </c>
+      <c r="O29">
+        <v>0.1275286179676195</v>
+      </c>
+      <c r="P29">
+        <v>0.1275286179676196</v>
+      </c>
+      <c r="Q29">
+        <v>2.515864661040222</v>
+      </c>
+      <c r="R29">
+        <v>22.642781949362</v>
+      </c>
+      <c r="S29">
+        <v>0.03387334377297713</v>
+      </c>
+      <c r="T29">
+        <v>0.03387334377297714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4941023333333334</v>
+      </c>
+      <c r="H30">
+        <v>1.482307</v>
+      </c>
+      <c r="I30">
+        <v>0.2656136662719722</v>
+      </c>
+      <c r="J30">
+        <v>0.2656136662719722</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.855806</v>
+      </c>
+      <c r="N30">
+        <v>2.567418</v>
+      </c>
+      <c r="O30">
+        <v>0.02143446312744256</v>
+      </c>
+      <c r="P30">
+        <v>0.02143446312744257</v>
+      </c>
+      <c r="Q30">
+        <v>0.4228557414806667</v>
+      </c>
+      <c r="R30">
+        <v>3.805701673326</v>
+      </c>
+      <c r="S30">
+        <v>0.005693286335851423</v>
+      </c>
+      <c r="T30">
+        <v>0.005693286335851424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4941023333333334</v>
+      </c>
+      <c r="H31">
+        <v>1.482307</v>
+      </c>
+      <c r="I31">
+        <v>0.2656136662719722</v>
+      </c>
+      <c r="J31">
+        <v>0.2656136662719722</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10.113102</v>
+      </c>
+      <c r="N31">
+        <v>30.339306</v>
+      </c>
+      <c r="O31">
+        <v>0.2532921151792178</v>
+      </c>
+      <c r="P31">
+        <v>0.2532921151792179</v>
+      </c>
+      <c r="Q31">
+        <v>4.996907295438</v>
+      </c>
+      <c r="R31">
+        <v>44.972165658942</v>
+      </c>
+      <c r="S31">
+        <v>0.0672778473505347</v>
+      </c>
+      <c r="T31">
+        <v>0.06727784735053473</v>
       </c>
     </row>
   </sheetData>
